--- a/SpringSecurity/SpringSecurityren认证流程和关键类.xlsx
+++ b/SpringSecurity/SpringSecurityren认证流程和关键类.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="SpringSecurityren认证流程和关键类" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -30,11 +31,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,37 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,36 +92,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,9 +130,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,15 +161,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +181,102 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,25 +292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,19 +316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,121 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +375,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,17 +426,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,8 +440,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,37 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,133 +495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -695,13 +696,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -711,7 +712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="1089660"/>
+          <a:off x="7924800" y="5844540"/>
           <a:ext cx="2697480" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -760,13 +761,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -776,7 +777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="2377440"/>
+          <a:off x="7924800" y="7132320"/>
           <a:ext cx="2697480" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -927,13 +928,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -943,7 +944,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="3665220"/>
+          <a:off x="7924800" y="8420100"/>
           <a:ext cx="2697480" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1094,13 +1095,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1110,7 +1111,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7909560" y="4907280"/>
+          <a:off x="7909560" y="9662160"/>
           <a:ext cx="2697480" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1261,13 +1262,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1277,7 +1278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7901940" y="6141720"/>
+          <a:off x="7901940" y="10896600"/>
           <a:ext cx="2697480" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1431,13 +1432,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1450,7 +1451,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9273540" y="1752600"/>
+          <a:off x="9273540" y="6507480"/>
           <a:ext cx="0" cy="624840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1481,13 +1482,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1500,7 +1501,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9273540" y="3040380"/>
+          <a:off x="9273540" y="7795260"/>
           <a:ext cx="0" cy="624840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1531,13 +1532,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1550,7 +1551,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9258300" y="4328160"/>
+          <a:off x="9258300" y="9083040"/>
           <a:ext cx="15240" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1581,13 +1582,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1600,7 +1601,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9250680" y="5570220"/>
+          <a:off x="9250680" y="10325100"/>
           <a:ext cx="7620" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1631,13 +1632,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1647,7 +1648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7894320" y="7360920"/>
+          <a:off x="7894320" y="12115800"/>
           <a:ext cx="2697480" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1812,13 +1813,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1831,7 +1832,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9243060" y="6804660"/>
+          <a:off x="9243060" y="11559540"/>
           <a:ext cx="7620" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1862,13 +1863,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488315</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1878,7 +1879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6957060" y="1798320"/>
+          <a:off x="6957060" y="6553200"/>
           <a:ext cx="2065655" cy="511175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2037,13 +2038,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>503555</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>135890</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2053,7 +2054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2332355" y="327660"/>
+          <a:off x="2332355" y="5082540"/>
           <a:ext cx="3984625" cy="2185670"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2329,13 +2330,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -2348,7 +2349,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6316980" y="1420495"/>
+          <a:off x="6316980" y="6175375"/>
           <a:ext cx="1607820" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2382,13 +2383,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>349885</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>182245</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2398,7 +2399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11605260" y="1943100"/>
+          <a:off x="11605260" y="6697980"/>
           <a:ext cx="3984625" cy="1530985"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2540,7 +2541,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>这个</a:t>
+            <a:t>这个类本身并不包含验证的逻辑，它的作用是管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>AuthenticationProvider</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2549,7 +2559,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>类</a:t>
+            <a:t>，而真正的校验逻辑是写在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>AuthenticationProvider</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2558,7 +2577,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>本身</a:t>
+            <a:t>里面的，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>AuthenticationManager</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2567,322 +2595,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>并不</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>包含</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>验证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>逻辑</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>它</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>作用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>管理</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>AuthenticationProvider</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>而</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>真正</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>校验</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>逻辑</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>uthenticationProvider</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>AuthenticationManager</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>负责</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这些</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>真正</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>校验</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>收集</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>起来</a:t>
+            <a:t>负责把这些真正的校验方式收集起来</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
             <a:solidFill>
@@ -2899,13 +2612,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>334645</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2915,7 +2628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2446020" y="3664585"/>
+          <a:off x="2446020" y="8419465"/>
           <a:ext cx="3984625" cy="3153410"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3066,7 +2779,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>负责</a:t>
+            <a:t>负责把这些校验方式收集起来，然后进行循环挨个做匹配。在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>AuthenticationProvider</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -3075,7 +2797,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>把</a:t>
+            <a:t>的不同实现中，所支持的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Authentication</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -3084,259 +2815,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>这些</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>校验</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>收集</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>起来</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>然后</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>循环</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>挨个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>做</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>匹配</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>AuthenticationProvider</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不同</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实现</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>所</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>支持</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>uthentication</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不一样</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>。</a:t>
+            <a:t>是不一样的。</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
             <a:solidFill>
@@ -3372,7 +2851,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>的</a:t>
+            <a:t>的实现类中，调用了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>UserDetailsService</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -3381,7 +2869,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>实现</a:t>
+            <a:t>接口的实现类（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>UserDetailsService</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -3390,592 +2887,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>了</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>U</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>serDetailsService</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>接口</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实现类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>U</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>serDetailsService</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实现类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>获取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>认证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>获取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>之后</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>做</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>检查</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>调用UserDetails</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>接口</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实现</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>四个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>校验</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>结果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>检查</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>只有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>所有的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>检查</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>都</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>才</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>认为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>认证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>成功</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
+            <a:t>的实现类里是获取用户认证信息的类），在获取到用户信息之后，会对用户信息做检查，调用UserDetails接口实现方法中的四个校验方法的结果进行检查，只有所有的检查都通过才认为用户的认证是成功的</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
             <a:solidFill>
@@ -3992,13 +2904,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -4011,7 +2923,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10622280" y="2708910"/>
+          <a:off x="10622280" y="7463790"/>
           <a:ext cx="982980" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4045,13 +2957,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>334645</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -4063,7 +2975,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6430645" y="5241290"/>
+          <a:off x="6430645" y="9996170"/>
           <a:ext cx="1478915" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4097,13 +3009,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>471805</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4113,7 +3025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11727180" y="6667500"/>
+          <a:off x="11727180" y="11422380"/>
           <a:ext cx="3984625" cy="2078990"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4282,7 +3194,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>，</a:t>
+            <a:t>，这次在调用父类的构造函数需要传权限集合时传的是经过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>UserDetailsService</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4291,7 +3212,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>这次</a:t>
+            <a:t>实现类获取到的权限信息，同时将给方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>setAuthentication</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4300,7 +3230,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>在调用父类的构造函数需要传权限集合时传的是</a:t>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4309,7 +3248,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>经过</a:t>
+            <a:t>）表示</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -4318,7 +3257,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>UserDetailsService</a:t>
+            <a:t>username/password</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4327,7 +3266,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>实现</a:t>
+            <a:t>还已经过认证，最终还会将认证通过的信息拼装到一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Authentication</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4336,376 +3284,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>获取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>权限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>同时</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>给</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>setAuthentication</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>username/password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>还</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>已经过认证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>最终</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>还会将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>认证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>拼装</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>uthentication</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>然后</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会带着</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这些</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>认证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>回到</a:t>
+            <a:t>对象中，然后会带着这些认证通过的信息回到</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
@@ -4731,13 +3310,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -4750,7 +3329,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591800" y="7692390"/>
+          <a:off x="10591800" y="12447270"/>
           <a:ext cx="1135380" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4784,13 +3363,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>583565</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4800,7 +3379,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1802765" y="92075"/>
+          <a:off x="1802765" y="4846955"/>
           <a:ext cx="15485110" cy="9310370"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4847,13 +3426,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>337820</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4863,7 +3442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2293620" y="7955915"/>
+          <a:off x="2293620" y="12710795"/>
           <a:ext cx="5359400" cy="931545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4896,6 +3475,2065 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>507365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384165" y="3499485"/>
+          <a:ext cx="8728710" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>认证处理流程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9253220" y="12792710"/>
+          <a:ext cx="0" cy="2087245"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863840" y="14930755"/>
+          <a:ext cx="2726690" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SecurityContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>432435</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2261235" y="14312265"/>
+          <a:ext cx="3984625" cy="2078990"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在调用登陆成功处理器之前，会将认证成功的用户信息放到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中，然后将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>放到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContextHolder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里面。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>实际上就是包装了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，只是重写了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>equals</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>hashcode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>方法保证认证信息的唯一性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6245860" y="15334615"/>
+          <a:ext cx="1617980" cy="14605"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9271000" y="15719425"/>
+          <a:ext cx="7620" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7536180" y="16233775"/>
+          <a:ext cx="3529965" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SecurityContextHolder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="16624935"/>
+          <a:ext cx="1135380" cy="14605"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="圆角矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12200255" y="15676880"/>
+          <a:ext cx="3984625" cy="2078990"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContextHolder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ThreadLocal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的封装，意味着这是一个线程级的程序变量，在同一个线程内的变量可以通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ThreadLocal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>进行共享，在通常情况下，我们的一个请求和响应都是在同一个线程内完成的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContextPersistenceFilter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>拦截器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>可以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContextHolder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>认证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="圆角矩形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400290" y="17637760"/>
+          <a:ext cx="3766820" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SecurityContextPersistenceFilter</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9287510" y="17055465"/>
+          <a:ext cx="7620" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389255</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="圆角矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2218055" y="16871950"/>
+          <a:ext cx="3984625" cy="2078990"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SecurityContextPersistenceFilter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>过滤器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>整个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>过滤器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>链</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>最前端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>作用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>两个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>进来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>时候</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>检查</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是否</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ecurityC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ontext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>拿出来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>放到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>请求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>完</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>检查</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ecurityContext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>拿出来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>放到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6264275" y="18054320"/>
+          <a:ext cx="1136015" cy="2540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5161,8 +5799,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5171,4 +5809,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>